--- a/Excel Sheets/phys346_t4.xlsx
+++ b/Excel Sheets/phys346_t4.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\OneDrive\Desktop\Spring 2024\Assignments\Physics\Adlab Lab 5 - RLE\Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\OneDrive\Desktop\Spring 2024\Assignments\Physics\Adlab Lab 5 - RLE\AdLab_Lab_5\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391A1CCC-EF87-4453-8218-6B428F3E9BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D846E7FE-2DEB-4394-B227-F1AE22F7AAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B172C8C6-7D3F-4516-B188-A82CFDF87B30}"/>
+    <workbookView xWindow="3640" yWindow="3640" windowWidth="19200" windowHeight="9980" xr2:uid="{B172C8C6-7D3F-4516-B188-A82CFDF87B30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="bt">Sheet1!$F$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -416,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36C4B30-E846-4E8E-9968-FF3CDB4A6A11}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,6 +436,204 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C14" si="0">E2-bt</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>29.523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="B3">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000028E-2</v>
+      </c>
+      <c r="E3">
+        <v>29.555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>0.60150000000000003</v>
+      </c>
+      <c r="B4">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>6.5999999999998948E-2</v>
+      </c>
+      <c r="E4">
+        <v>29.588999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="B5">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.13200000000000145</v>
+      </c>
+      <c r="E5">
+        <v>29.655000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="B6">
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.15599999999999881</v>
+      </c>
+      <c r="E6">
+        <v>29.678999999999998</v>
+      </c>
+      <c r="F6">
+        <v>29.523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>1.1345000000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.61150000000000004</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.17600000000000193</v>
+      </c>
+      <c r="E7">
+        <v>29.699000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>1.1555</v>
+      </c>
+      <c r="B8">
+        <v>0.60350000000000004</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.18900000000000006</v>
+      </c>
+      <c r="E8">
+        <v>29.712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>1.3095000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.60150000000000003</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.22200000000000131</v>
+      </c>
+      <c r="E9">
+        <v>29.745000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>1.4495</v>
+      </c>
+      <c r="B10">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.24299999999999855</v>
+      </c>
+      <c r="E10">
+        <v>29.765999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>1.4615</v>
+      </c>
+      <c r="B11">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.25600000000000023</v>
+      </c>
+      <c r="E11">
+        <v>29.779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>1.6005</v>
+      </c>
+      <c r="B12">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.2759999999999998</v>
+      </c>
+      <c r="E12">
+        <v>29.798999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>1.7395</v>
+      </c>
+      <c r="B13">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.3230000000000004</v>
+      </c>
+      <c r="E13">
+        <v>29.846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>1.8855</v>
+      </c>
+      <c r="B14">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.34199999999999875</v>
+      </c>
+      <c r="E14">
+        <v>29.864999999999998</v>
       </c>
     </row>
   </sheetData>
